--- a/シナリオ別失業率.xlsx
+++ b/シナリオ別失業率.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>7月から連続▲25bp</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>9月▲25bp,Q4に▲75bp</t>
+  </si>
+  <si>
+    <t>Q4に▲100bp</t>
   </si>
 </sst>
 </file>
@@ -386,13 +389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,8 +405,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>45292</v>
       </c>
@@ -416,8 +422,11 @@
       <c r="D2">
         <v>3.78247358508853</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>3.78247358508853</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>45383</v>
       </c>
@@ -430,8 +439,11 @@
       <c r="D3">
         <v>3.960903665855144</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>3.960903665855144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>45474</v>
       </c>
@@ -444,8 +456,11 @@
       <c r="D4">
         <v>4.23709174823011</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>4.23709174823011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>45566</v>
       </c>
@@ -458,8 +473,11 @@
       <c r="D5">
         <v>4.19549958538097</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>4.195573929455024</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>45658</v>
       </c>
@@ -472,8 +490,11 @@
       <c r="D6">
         <v>4.120978351427414</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>4.096743681114789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>45748</v>
       </c>
@@ -486,8 +507,11 @@
       <c r="D7">
         <v>4.075561371192262</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>4.037086841535631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>45839</v>
       </c>
@@ -500,8 +524,11 @@
       <c r="D8">
         <v>4.026551034837516</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>3.971814840580978</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>45931</v>
       </c>
@@ -514,8 +541,11 @@
       <c r="D9">
         <v>4.00648099038721</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>3.945399758499387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>46023</v>
       </c>
@@ -528,8 +558,11 @@
       <c r="D10">
         <v>3.986977528314782</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>3.919457470063083</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>46113</v>
       </c>
@@ -542,8 +575,11 @@
       <c r="D11">
         <v>3.977401805809559</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>3.906735596429402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>46204</v>
       </c>
@@ -556,8 +592,11 @@
       <c r="D12">
         <v>3.971897926258031</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>3.89934144266164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>46296</v>
       </c>
@@ -569,6 +608,9 @@
       </c>
       <c r="D13">
         <v>3.97175545041144</v>
+      </c>
+      <c r="E13">
+        <v>3.899053323967651</v>
       </c>
     </row>
   </sheetData>
